--- a/Team-Data/2012-13/3-27-2012-13.xlsx
+++ b/Team-Data/2012-13/3-27-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.556</v>
+        <v>0.549</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -696,7 +763,7 @@
         <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
         <v>13.6</v>
@@ -705,7 +772,7 @@
         <v>19.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.709</v>
+        <v>0.707</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
@@ -720,40 +787,40 @@
         <v>24.6</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -810,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
@@ -866,7 +933,7 @@
         <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.461</v>
@@ -875,31 +942,31 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
         <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>14.7</v>
@@ -908,7 +975,7 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
@@ -917,16 +984,16 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -956,13 +1023,13 @@
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>18</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -971,16 +1038,16 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -989,16 +1056,16 @@
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.592</v>
+        <v>0.586</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
         <v>17.4</v>
@@ -1069,28 +1136,28 @@
         <v>23.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S4" t="n">
         <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>4.8</v>
@@ -1102,13 +1169,13 @@
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1123,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1147,22 +1214,22 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1180,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>54</v>
       </c>
       <c r="G5" t="n">
-        <v>0.239</v>
+        <v>0.229</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1242,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O5" t="n">
         <v>19.1</v>
@@ -1257,13 +1324,13 @@
         <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>13.8</v>
@@ -1278,25 +1345,25 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,7 +1479,7 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
@@ -1421,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N6" t="n">
         <v>0.34</v>
@@ -1430,13 +1497,13 @@
         <v>16.5</v>
       </c>
       <c r="P6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
         <v>30.7</v>
@@ -1454,10 +1521,10 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
         <v>19.5</v>
@@ -1466,7 +1533,7 @@
         <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5</v>
@@ -1475,13 +1542,13 @@
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1490,10 +1557,10 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1508,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1523,22 +1590,22 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
         <v>18</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>0.314</v>
+        <v>0.319</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,28 +1673,28 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="T7" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1648,10 +1715,10 @@
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
         <v>26</v>
@@ -1681,19 +1748,19 @@
         <v>16</v>
       </c>
       <c r="AM7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>-0.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>16</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,13 +1921,13 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>8</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>8</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I9" t="n">
         <v>40.5</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
         <v>0.476</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
@@ -1988,7 +2055,7 @@
         <v>31.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
         <v>24.2</v>
@@ -1997,25 +2064,25 @@
         <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -2024,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -2200,31 +2267,31 @@
         <v>-4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2245,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,43 +2389,43 @@
         <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.399</v>
+        <v>0.402</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
         <v>0.791</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,37 +2434,37 @@
         <v>4.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
         <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2409,28 +2476,28 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,25 +2506,25 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
         <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.549</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
         <v>82.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L12" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M12" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
@@ -2525,22 +2592,22 @@
         <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
         <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2558,22 +2625,22 @@
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
         <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2588,13 +2655,13 @@
         <v>7</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2636,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,7 +2753,7 @@
         <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.434</v>
@@ -2698,22 +2765,22 @@
         <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P13" t="n">
         <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T13" t="n">
         <v>46.3</v>
@@ -2746,7 +2813,7 @@
         <v>4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2779,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
         <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
         <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
@@ -2919,25 +2986,25 @@
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2970,10 +3037,10 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
         <v>19</v>
@@ -2994,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
         <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
@@ -3062,16 +3129,16 @@
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
         <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
@@ -3083,7 +3150,7 @@
         <v>44.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3098,19 +3165,19 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
         <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3158,25 +3225,25 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
         <v>0.443</v>
@@ -3241,40 +3308,40 @@
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.6</v>
@@ -3283,22 +3350,22 @@
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
@@ -3307,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3340,19 +3407,19 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>56</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.789</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.496</v>
@@ -3426,28 +3493,28 @@
         <v>21.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="U17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,25 +3523,25 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA17" t="n">
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
@@ -3519,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3608,16 +3675,16 @@
         <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
         <v>12.9</v>
@@ -3629,31 +3696,31 @@
         <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y18" t="n">
         <v>4.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
         <v>26</v>
@@ -3662,7 +3729,7 @@
         <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
@@ -3671,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,16 +3753,16 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3710,10 +3777,10 @@
         <v>11</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,13 +3792,13 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
         <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,13 +3857,13 @@
         <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="O19" t="n">
         <v>18.2</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q19" t="n">
         <v>0.732</v>
@@ -3817,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3826,13 +3893,13 @@
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.6</v>
@@ -3841,13 +3908,13 @@
         <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3892,10 +3959,10 @@
         <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3904,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
         <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.347</v>
+        <v>0.352</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,37 +4027,37 @@
         <v>36.3</v>
       </c>
       <c r="J20" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
         <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
@@ -4005,7 +4072,7 @@
         <v>5.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>20.4</v>
@@ -4017,31 +4084,31 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
         <v>24</v>
       </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,13 +4117,13 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.369</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P21" t="n">
         <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
         <v>19.3</v>
@@ -4184,22 +4251,22 @@
         <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD21" t="n">
         <v>26</v>
@@ -4217,34 +4284,34 @@
         <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO21" t="n">
         <v>20</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4271,7 +4338,7 @@
         <v>14</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.481</v>
@@ -4333,28 +4400,28 @@
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.828</v>
+        <v>0.826</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
         <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
         <v>21.5</v>
@@ -4375,16 +4442,16 @@
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB22" t="n">
         <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4456,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
         <v>83.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
@@ -4533,16 +4600,16 @@
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>6.3</v>
@@ -4557,16 +4624,16 @@
         <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4617,28 +4684,28 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.394</v>
+        <v>0.386</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V24" t="n">
         <v>13.2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
         <v>4.9</v>
@@ -4736,19 +4803,19 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,19 +4833,19 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4814,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>0.319</v>
+        <v>0.324</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.44</v>
@@ -4894,16 +4961,16 @@
         <v>0.735</v>
       </c>
       <c r="R25" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
         <v>15.4</v>
@@ -4921,22 +4988,22 @@
         <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
@@ -4975,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,13 +5063,13 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="n">
-        <v>0.465</v>
+        <v>0.471</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5061,10 +5128,10 @@
         <v>8.4</v>
       </c>
       <c r="M26" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
@@ -5073,13 +5140,13 @@
         <v>20.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T26" t="n">
         <v>41.6</v>
@@ -5091,7 +5158,7 @@
         <v>14.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
@@ -5106,13 +5173,13 @@
         <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5127,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5151,10 +5218,10 @@
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
@@ -5166,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5184,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
         <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.361</v>
+        <v>0.352</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.447</v>
       </c>
       <c r="L27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
         <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
         <v>22.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
         <v>11.4</v>
@@ -5273,37 +5340,37 @@
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5336,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS27" t="n">
         <v>29</v>
@@ -5351,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.761</v>
+        <v>0.757</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,67 +5483,67 @@
         <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
         <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>8.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
         <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
         <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,13 +5561,13 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5509,13 +5576,13 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="H29" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
         <v>21</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O29" t="n">
         <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R29" t="n">
         <v>10.9</v>
@@ -5634,31 +5701,31 @@
         <v>21.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5718,16 +5785,16 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
         <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5795,10 +5862,10 @@
         <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P30" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.766</v>
@@ -5807,13 +5874,13 @@
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
         <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5822,31 +5889,31 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
@@ -5855,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5873,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5885,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5912,10 +5979,10 @@
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
@@ -5974,22 +6041,22 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q31" t="n">
         <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
         <v>43.2</v>
@@ -5998,7 +6065,7 @@
         <v>22</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6007,22 +6074,22 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6037,13 +6104,13 @@
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
         <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6073,7 +6140,7 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
         <v>27</v>
@@ -6088,13 +6155,13 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2012-13</t>
+          <t>2013-03-27</t>
         </is>
       </c>
     </row>
